--- a/LM2ReadandList/NewListOut36.xlsx
+++ b/LM2ReadandList/NewListOut36.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF789E-AAC0-44B9-AD4C-6094FEF3C382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7380" tabRatio="957"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25支嘜頭_2.1" sheetId="27" r:id="rId1"/>
@@ -47,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +126,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +281,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +312,57 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,65 +387,28 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="2"/>
-    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,13 +423,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>508560</xdr:colOff>
+      <xdr:colOff>516180</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -434,13 +467,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>524435</xdr:colOff>
+      <xdr:colOff>520625</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2" descr="logo白底黑字.png"/>
+        <xdr:cNvPr id="3" name="圖片 2" descr="logo白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -509,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,9 +580,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,6 +632,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,49 +825,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R11"/>
+      <selection activeCell="H1" sqref="H1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.625" style="1" customWidth="1"/>
+    <col min="1" max="12" width="10.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="18" width="28.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="28.6640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="29" t="s">
+    <row r="1" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="29" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="19"/>
@@ -809,12 +884,12 @@
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29" t="s">
+    <row r="3" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="19"/>
@@ -831,12 +906,12 @@
       <c r="R3" s="2"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+    <row r="4" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="19"/>
@@ -853,189 +928,210 @@
       <c r="R4" s="5"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:19" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="33"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="21"/>
       <c r="N5" s="22"/>
       <c r="O5" s="7"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="39.200000000000003" customHeight="1" thickBot="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+    <row r="6" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2"/>
       <c r="O6" s="8"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="39.200000000000003" customHeight="1" thickBot="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+    <row r="7" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="4"/>
       <c r="N7" s="2"/>
       <c r="O7" s="8"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="39.200000000000003" customHeight="1" thickBot="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+    <row r="8" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
       <c r="O8" s="8"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="39.200000000000003" customHeight="1" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+    <row r="9" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
       <c r="O9" s="8"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="39.200000000000003" customHeight="1" thickBot="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+    <row r="10" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="4"/>
       <c r="N10" s="2"/>
       <c r="O10" s="8"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="39.200000000000003" customHeight="1" thickBot="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+    <row r="11" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
       <c r="O11" s="8"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="42" customHeight="1" thickBot="1">
+    <row r="12" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="5"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="P15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="Q5:R11"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -1052,35 +1148,14 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut36.xlsx
+++ b/LM2ReadandList/NewListOut36.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00570\Desktop\GitHub\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mis\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF789E-AAC0-44B9-AD4C-6094FEF3C382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052FC4FA-DB51-4EDC-818E-A43A55FAE721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25支嘜頭_2.1" sheetId="27" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,13 +121,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -142,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -271,6 +264,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -281,42 +285,84 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,7 +373,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,59 +385,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -826,312 +824,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="12" width="10.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="18" width="28.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="12" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="17" max="18" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="18" t="s">
+    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="18" t="s">
+    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="18" t="s">
+    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="3"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:18" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="7"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="3"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="34"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
     </row>
-    <row r="6" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="8"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="3"/>
+    <row r="6" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
     </row>
-    <row r="7" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="8"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="3"/>
+    <row r="7" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
     </row>
-    <row r="8" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="8"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="3"/>
+    <row r="8" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="5"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
     </row>
-    <row r="9" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="3"/>
+    <row r="9" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="5"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
     </row>
-    <row r="10" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="3"/>
+    <row r="10" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
     </row>
-    <row r="11" spans="1:19" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="3"/>
+    <row r="11" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
     </row>
-    <row r="12" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:18" ht="42" customHeight="1" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="P15" s="3"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="Q5:R11"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -1148,6 +1099,34 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
@@ -1155,7 +1134,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut36.xlsx
+++ b/LM2ReadandList/NewListOut36.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mis\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052FC4FA-DB51-4EDC-818E-A43A55FAE721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CABA2F-229A-4571-ADAA-FE8C893586C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25支嘜頭_2.1" sheetId="27" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,7 +285,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +307,66 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,65 +391,11 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -504,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,9 +550,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,26 +585,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,26 +620,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -827,10 +799,10 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H2" sqref="H2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="10.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
@@ -839,248 +811,285 @@
     <col min="17" max="18" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="32" t="s">
+    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="32" t="s">
+    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="27.9" customHeight="1" thickBot="1">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:18" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="34"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+    <row r="6" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="5"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+    <row r="7" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+    <row r="8" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="5"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+    <row r="9" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="5"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+    <row r="10" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+    <row r="11" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="42" customHeight="1" thickBot="1">
+    <row r="12" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="Q5:R11"/>
@@ -1097,43 +1106,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/LM2ReadandList/NewListOut36.xlsx
+++ b/LM2ReadandList/NewListOut36.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F00019\Documents\GitHub\LM2ReadandList\LM2ReadandList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CABA2F-229A-4571-ADAA-FE8C893586C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16719977-5DD4-4DB3-B18A-EF789796B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,9 +307,84 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -321,81 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -414,99 +414,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>516180</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="logo白底黑字.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="168275" y="254000"/>
-          <a:ext cx="2673910" cy="1476375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2" descr="logo白底黑字.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="184150" y="254000"/>
-          <a:ext cx="2683435" cy="1466850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,7 +709,7 @@
       <selection activeCell="H2" sqref="H2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="12" width="10.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
@@ -811,248 +718,285 @@
     <col min="17" max="18" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="26" t="s">
+    <row r="1" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="26" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="26" t="s">
+    <row r="3" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+    <row r="4" spans="1:18" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:18" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="2"/>
       <c r="N6" s="1"/>
       <c r="O6" s="5"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="5"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="O9" s="5"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" ht="39.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="39.15" customHeight="1" thickBot="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" s="5"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="42" customHeight="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:R11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
@@ -1069,48 +1013,10 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:R11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" scale="45" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>